--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/instrument.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/instrument.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SURFACEPRO4-NOR\data\metadb\OME\xml2RDF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2B6D61-2CAA-41AF-84D9-B2A9283BFF8B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF596E7-9915-4F0F-A9AF-7B781FB1DFC3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18810" windowHeight="5025" tabRatio="803" xr2:uid="{F99566B2-EC23-42D5-8C4D-932A9FF4467A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18816" windowHeight="5028" tabRatio="803" xr2:uid="{F99566B2-EC23-42D5-8C4D-932A9FF4467A}"/>
   </bookViews>
   <sheets>
     <sheet name="@prefix" sheetId="35" r:id="rId1"/>
@@ -34,13 +34,12 @@
     <sheet name="Light_Source_Settings" sheetId="60" r:id="rId19"/>
     <sheet name="Lignt_Path" sheetId="56" r:id="rId20"/>
     <sheet name="Binary_Data" sheetId="46" r:id="rId21"/>
-    <sheet name="Unit" sheetId="62" r:id="rId22"/>
-    <sheet name="size" sheetId="63" r:id="rId23"/>
-    <sheet name="distance" sheetId="64" r:id="rId24"/>
-    <sheet name="frequency" sheetId="65" r:id="rId25"/>
-    <sheet name="voltage" sheetId="66" r:id="rId26"/>
-    <sheet name="waveLength" sheetId="67" r:id="rId27"/>
-    <sheet name="power" sheetId="68" r:id="rId28"/>
+    <sheet name="size" sheetId="63" r:id="rId22"/>
+    <sheet name="distance" sheetId="64" r:id="rId23"/>
+    <sheet name="frequency" sheetId="65" r:id="rId24"/>
+    <sheet name="voltage" sheetId="66" r:id="rId25"/>
+    <sheet name="waveLength" sheetId="67" r:id="rId26"/>
+    <sheet name="power" sheetId="68" r:id="rId27"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -52,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="410">
   <si>
     <t/>
   </si>
@@ -333,9 +332,6 @@
     <t>:data</t>
   </si>
   <si>
-    <t>xsd:long</t>
-  </si>
-  <si>
     <t>xsd:base64Binary</t>
   </si>
   <si>
@@ -1167,18 +1163,6 @@
   </si>
   <si>
     <t>[waveLength:510nm]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>prefix</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>base unit</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1189,99 +1173,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>接頭辞</t>
-    <rPh sb="0" eb="3">
-      <t>セットウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>基本単位</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タンイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:prefix</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:baseUnit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000046</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000000</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>unit:nm</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"nano-meter"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000300</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000008</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>unit:MHz</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"mega-heltz"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000293</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000106</t>
-  </si>
-  <si>
-    <t>unit:um</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"micro-meter"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000299</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>unit:mW</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"milli-watt"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000297</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000114</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1368,10 +1260,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>UO:0000218</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[voltage:120V]</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1429,14 +1317,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument/unit/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>instrument</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1569,6 +1449,66 @@
   </si>
   <si>
     <t>correction:UV</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>xsd:nonNegativeLong</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitLength:um</t>
+  </si>
+  <si>
+    <t>unitFrequency:Hz</t>
+  </si>
+  <si>
+    <t>unitElectricPotential:V</t>
+  </si>
+  <si>
+    <t>unitLength:nm</t>
+  </si>
+  <si>
+    <t>unitPower:ｍW</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitLength</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitLength#</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitPower</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitPower#</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitFrequency</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitFrequency#</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitTime</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitTime#</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitElectricPotential</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitElectricPotential#</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1576,7 +1516,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1605,13 +1545,6 @@
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1645,7 +1578,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1664,16 +1597,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1997,18 +1921,18 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="96.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2016,7 +1940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2024,7 +1948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2032,7 +1956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2040,7 +1964,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2048,7 +1972,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -2056,236 +1980,268 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="B14" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="1" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B19" s="1" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="1" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B29" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A28" s="1" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B30" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A29" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B29" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A30" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B30" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A33" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>381</v>
+        <v>353</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>380</v>
+        <v>401</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -2300,50 +2256,50 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.75" style="1"/>
+    <col min="4" max="4" width="23.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -2356,86 +2312,86 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2450,46 +2406,46 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="1"/>
+    <col min="9" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -2501,134 +2457,134 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="H4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B5" s="1" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
+      <c r="H7" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B8" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -2643,40 +2599,40 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="19.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -2687,125 +2643,125 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="G5" s="1">
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="G6" s="1">
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="G7" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="G8" s="1">
         <v>0.7</v>
@@ -2823,34 +2779,34 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.75" style="1"/>
+    <col min="4" max="4" width="27.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -2859,50 +2815,50 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>393</v>
+        <v>365</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>394</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -2917,20 +2873,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -2938,7 +2894,7 @@
         <v>60</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>14</v>
@@ -2953,10 +2909,10 @@
         <v>62</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -2972,13 +2928,13 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>20</v>
@@ -2993,10 +2949,10 @@
         <v>64</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -3004,7 +2960,7 @@
         <v>65</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>24</v>
@@ -3019,30 +2975,30 @@
         <v>67</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3057,21 +3013,21 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3079,10 +3035,10 @@
         <v>68</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>76</v>
@@ -3115,7 +3071,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -3133,49 +3089,49 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>387</v>
+        <v>359</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -3183,19 +3139,19 @@
         <v>66</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>81</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>39</v>
@@ -3213,30 +3169,30 @@
         <v>39</v>
       </c>
       <c r="M4" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D5" t="s">
+        <v>390</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D5" t="s">
-        <v>418</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>419</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -3254,10 +3210,10 @@
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3272,19 +3228,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3292,22 +3248,22 @@
         <v>84</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>85</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -3318,28 +3274,28 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -3347,39 +3303,39 @@
         <v>83</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>87</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>268</v>
-      </c>
       <c r="F5" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -3394,42 +3350,42 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -3437,12 +3393,12 @@
         <v>87</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C5" s="1">
         <v>-2147483648</v>
@@ -3460,46 +3416,46 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.75" style="1"/>
+    <col min="4" max="4" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -3511,42 +3467,42 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>43</v>
@@ -3555,21 +3511,21 @@
         <v>43</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>359</v>
+        <v>334</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="D5" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
       <c r="E5" s="1">
         <v>1.2</v>
@@ -3578,10 +3534,10 @@
         <v>0.7</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>360</v>
+        <v>335</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -3596,34 +3552,34 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.75" style="1"/>
+    <col min="4" max="4" width="19.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -3632,47 +3588,47 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>388</v>
+        <v>360</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E5" s="1">
         <v>0.8</v>
@@ -3690,16 +3646,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3707,13 +3663,13 @@
         <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -3721,19 +3677,19 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -3741,101 +3697,101 @@
         <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" s="1" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B10" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B8" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B9" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B10" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" s="1" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B11" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="1" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B12" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="1" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B13" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" s="1" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B14" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B14" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D14" s="1" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B15" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3850,30 +3806,30 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -3881,41 +3837,41 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3930,17 +3886,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -3957,7 +3913,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -3966,7 +3922,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -3981,7 +3937,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -3989,18 +3945,18 @@
         <v>82</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>93</v>
+        <v>394</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C5" s="1">
         <v>32</v>
@@ -4009,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -4019,230 +3975,85 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251A5572-E6EF-48B9-8EDE-743FD179DA00}">
-  <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>331</v>
-      </c>
-      <c r="C5" t="s">
-        <v>332</v>
-      </c>
-      <c r="D5" t="s">
-        <v>333</v>
-      </c>
-      <c r="E5" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B6" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="C6" t="s">
-        <v>336</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="E6" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B7" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="D7" t="s">
-        <v>341</v>
-      </c>
-      <c r="E7" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
-        <v>342</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="D8" t="s">
-        <v>344</v>
-      </c>
-      <c r="E8" t="s">
-        <v>345</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB165E28-A606-4E67-B1F5-F66147E44AAA}">
   <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
+    <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="C5">
         <v>100000</v>
       </c>
-      <c r="D5" t="s">
-        <v>339</v>
+      <c r="D5" s="6" t="s">
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -4252,85 +4063,173 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AEE26D9-A41C-4501-98D1-BA232CCBB34C}">
   <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
+    <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C5">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
-        <v>339</v>
+      <c r="D5" s="6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF5B303-2F50-4A21-88F8-17A29EC81802}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C5">
+        <v>3200</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -4340,84 +4239,85 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF5B303-2F50-4A21-88F8-17A29EC81802}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD968073-A8EA-4831-BBB3-D83D2624F8C1}">
   <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
+    <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>359</v>
+      <c r="B4" s="3" t="s">
+        <v>338</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="C5">
-        <v>3200</v>
-      </c>
-      <c r="D5" t="s">
-        <v>338</v>
+        <v>120</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -4427,86 +4327,262 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD968073-A8EA-4831-BBB3-D83D2624F8C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9631B83-8657-489D-930F-1B3BE836BDD9}">
   <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
+    <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>363</v>
+        <v>301</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>365</v>
+        <v>302</v>
       </c>
       <c r="C5">
-        <v>120</v>
-      </c>
-      <c r="D5" t="s">
-        <v>364</v>
+        <v>350</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C6">
+        <v>560</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C7">
+        <v>562</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B8" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C8">
+        <v>463</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B9" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C9">
+        <v>450</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B10" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C10">
+        <v>630</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B11" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C11">
+        <v>633</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B12" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C12">
+        <v>535</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B13" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B14" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C14">
+        <v>25</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B15" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C15">
+        <v>11</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B16" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C16">
+        <v>21</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B17" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B18" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C18">
+        <v>30</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B19" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C19">
+        <v>23</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B20" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C20">
+        <v>34</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B21" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C21">
+        <v>510</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -4516,358 +4592,94 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9631B83-8657-489D-930F-1B3BE836BDD9}">
-  <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:D21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B5" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C5">
-        <v>350</v>
-      </c>
-      <c r="D5" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C6">
-        <v>560</v>
-      </c>
-      <c r="D6" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B7" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C7">
-        <v>562</v>
-      </c>
-      <c r="D7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B8" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C8">
-        <v>463</v>
-      </c>
-      <c r="D8" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B9" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C9">
-        <v>450</v>
-      </c>
-      <c r="D9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B10" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C10">
-        <v>630</v>
-      </c>
-      <c r="D10" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B11" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C11">
-        <v>633</v>
-      </c>
-      <c r="D11" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B12" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C12">
-        <v>535</v>
-      </c>
-      <c r="D12" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B13" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C13">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B14" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C14">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B15" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C15">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B16" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C16">
-        <v>21</v>
-      </c>
-      <c r="D16" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B17" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C17">
-        <v>20</v>
-      </c>
-      <c r="D17" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B18" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C18">
-        <v>30</v>
-      </c>
-      <c r="D18" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B19" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C19">
-        <v>23</v>
-      </c>
-      <c r="D19" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B20" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C20">
-        <v>34</v>
-      </c>
-      <c r="D20" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B21" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C21">
-        <v>510</v>
-      </c>
-      <c r="D21" t="s">
-        <v>331</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDCFB199-B383-445A-86B6-180C1ECFAF4A}">
   <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
+    <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C5">
         <v>200</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="6" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
         <v>342</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="C6">
         <v>300</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>342</v>
+      <c r="D6" s="6" t="s">
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -4882,18 +4694,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -4901,19 +4713,19 @@
         <v>25</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -4923,25 +4735,25 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -4949,33 +4761,33 @@
         <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>414</v>
+        <v>386</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>415</v>
+        <v>387</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -4990,15 +4802,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -5009,7 +4821,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -5018,7 +4830,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -5027,7 +4839,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -5038,44 +4850,44 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B6" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -5090,22 +4902,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -5113,19 +4925,19 @@
         <v>29</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>31</v>
@@ -5134,10 +4946,10 @@
         <v>32</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -5151,25 +4963,25 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>34</v>
@@ -5178,10 +4990,10 @@
         <v>35</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -5189,19 +5001,19 @@
         <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>38</v>
@@ -5210,36 +5022,36 @@
         <v>40</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H5" t="s">
+        <v>202</v>
+      </c>
+      <c r="I5" t="s">
+        <v>191</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B5" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="H5" t="s">
-        <v>203</v>
-      </c>
-      <c r="I5" t="s">
-        <v>192</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -5254,58 +5066,58 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="1"/>
+    <col min="4" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>409</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -5320,46 +5132,46 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="1"/>
+    <col min="4" max="4" width="23.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -5371,77 +5183,77 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="G5" t="s">
         <v>201</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B5" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="G5" t="s">
-        <v>202</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -5456,18 +5268,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -5475,19 +5287,19 @@
         <v>41</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -5497,25 +5309,25 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -5523,33 +5335,33 @@
         <v>42</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>408</v>
+        <v>380</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -5564,23 +5376,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -5588,13 +5400,13 @@
         <v>44</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>45</v>
@@ -5615,7 +5427,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -5630,19 +5442,19 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>51</v>
@@ -5663,7 +5475,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -5671,16 +5483,16 @@
         <v>57</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>43</v>
@@ -5698,33 +5510,33 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>407</v>
+        <v>379</v>
       </c>
       <c r="F5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G5" s="1">
         <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>421</v>
+        <v>393</v>
       </c>
       <c r="I5" s="1">
         <v>1.2</v>
       </c>
       <c r="J5" t="s">
-        <v>417</v>
+        <v>389</v>
       </c>
       <c r="K5" s="1">
         <v>60.12</v>

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/instrument.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/instrument.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF596E7-9915-4F0F-A9AF-7B781FB1DFC3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784C225D-CA4C-47E6-B7DC-963151A36CC2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18816" windowHeight="5028" tabRatio="803" xr2:uid="{F99566B2-EC23-42D5-8C4D-932A9FF4467A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18816" windowHeight="5028" tabRatio="865" xr2:uid="{F99566B2-EC23-42D5-8C4D-932A9FF4467A}"/>
   </bookViews>
   <sheets>
     <sheet name="@prefix" sheetId="35" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="441">
   <si>
     <t/>
   </si>
@@ -394,10 +394,6 @@
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/AcquisitionMode#</t>
   </si>
   <si>
-    <t>image</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>plate</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -438,22 +434,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[objective:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[detector:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[microscope:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[laser:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>model</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -514,10 +494,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[pixels:image0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>instrument</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -582,10 +558,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[channel:0.1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Color</t>
   </si>
   <si>
@@ -623,34 +595,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[arc:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[filterSet:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[filter:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[filter:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[filter:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[filter:3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[dichroic:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Dichroic</t>
   </si>
   <si>
@@ -725,10 +669,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[pump:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Arc</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -892,10 +832,6 @@
     <t>:FilterType</t>
   </si>
   <si>
-    <t>[transmittanceRange:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Transmittance Range</t>
   </si>
   <si>
@@ -929,18 +865,6 @@
     <t>:cutIn</t>
   </si>
   <si>
-    <t>[transmittanceRange:1]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[transmittanceRange:2]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[transmittanceRange:3]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>filterType:bandPass</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -956,10 +880,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[bindata:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[color:-2147483648]</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -979,10 +899,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[lightSourceSettings:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>detector settings</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1059,18 +975,6 @@
   </si>
   <si>
     <t>:Binning</t>
-  </si>
-  <si>
-    <t>[lightPath:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[detectorSettings:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[lightPath:0]</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>binning</t>
@@ -1509,6 +1413,226 @@
   </si>
   <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitElectricPotential#</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>microscope</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument/microscope/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>laser</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pump</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>objective</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>filterSet</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>filter</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>transmittanceRange</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dichroic</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>detectorSettings</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lightSourceSettings</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lightPath</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument/laser/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument/pump/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>arc</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>detector</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument/arc/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument/detector/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument/objective/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument/filterSet/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument/filter/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument/transmittanceRange/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument/dichroic/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument/pixels/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument/channel/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument/detectorSettings/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument/lightSourceSettings/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument/lightPath/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument/bindata/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>microscope:microscope0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>laser:laser0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pump:pump0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>arc:arc0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>detector:detector0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>objective:objective0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>filterSet:filterSet0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>filter:filter0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>filter:filter1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>filter:filter2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>filter:filter3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dichroic:dichroic0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>transmittanceRange:transmittanceRange0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>transmittanceRange:transmittanceRange1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>transmittanceRange:transmittanceRange2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>transmittanceRange:transmittanceRange3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels:pixels0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>channel:channel0.1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>detectorSettings:detectorSettings0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lightPath:lightPath0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>lightSourceSettings:lightSourceSettings0</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1921,14 +2045,14 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="90.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1998,47 +2122,47 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>98</v>
@@ -2054,10 +2178,10 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -2102,151 +2226,280 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>165</v>
+        <v>201</v>
+      </c>
+      <c r="B28" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>216</v>
+        <v>271</v>
       </c>
       <c r="B29" t="s">
-        <v>215</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B30" t="s">
-        <v>296</v>
+        <v>376</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>112</v>
+        <v>378</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>166</v>
+        <v>379</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
-        <v>113</v>
+      <c r="A32" s="6" t="s">
+        <v>380</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>167</v>
+        <v>381</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>114</v>
+        <v>382</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>168</v>
+        <v>383</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A34" s="1" t="s">
-        <v>353</v>
+      <c r="A34" s="6" t="s">
+        <v>384</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>354</v>
+        <v>385</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>400</v>
+        <v>111</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>401</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>402</v>
+        <v>112</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>403</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A37" s="6" t="s">
-        <v>404</v>
+      <c r="A37" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>405</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B38" s="1" t="s">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A39" s="6" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B39" s="1" t="s">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>409</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>418</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2259,14 +2512,14 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
@@ -2275,28 +2528,28 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
@@ -2318,25 +2571,25 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
@@ -2344,54 +2597,54 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>170</v>
+        <v>425</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>172</v>
+        <v>427</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>171</v>
+        <v>426</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>175</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -2409,12 +2662,12 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.69921875" style="1"/>
   </cols>
@@ -2424,25 +2677,25 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -2463,22 +2716,22 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -2486,105 +2739,105 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>171</v>
+        <v>426</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>242</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>172</v>
+        <v>427</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>254</v>
+        <v>432</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>173</v>
+        <v>428</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>255</v>
+        <v>433</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>174</v>
+        <v>429</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>256</v>
+        <v>434</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -2602,7 +2855,7 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="19.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="18.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.59765625" style="1" bestFit="1" customWidth="1"/>
@@ -2614,22 +2867,22 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -2649,19 +2902,19 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -2669,19 +2922,19 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>43</v>
@@ -2689,19 +2942,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>242</v>
+        <v>431</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="G5" s="1">
         <v>0.3</v>
@@ -2709,19 +2962,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>254</v>
+        <v>432</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="G6" s="1">
         <v>0.8</v>
@@ -2729,19 +2982,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>255</v>
+        <v>433</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="G7" s="1">
         <v>0.5</v>
@@ -2749,19 +3002,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>256</v>
+        <v>434</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="G8" s="1">
         <v>0.7</v>
@@ -2782,9 +3035,9 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.69921875" style="1"/>
   </cols>
@@ -2794,16 +3047,16 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -2821,13 +3074,13 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -2835,30 +3088,30 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>175</v>
+        <v>430</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -2894,7 +3147,7 @@
         <v>60</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>14</v>
@@ -2909,7 +3162,7 @@
         <v>62</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -2934,7 +3187,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>20</v>
@@ -2949,7 +3202,7 @@
         <v>64</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -2960,7 +3213,7 @@
         <v>65</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>24</v>
@@ -2975,30 +3228,30 @@
         <v>67</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>141</v>
+        <v>435</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3016,14 +3269,14 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3035,10 +3288,10 @@
         <v>68</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>76</v>
@@ -3095,40 +3348,40 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>99</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
@@ -3139,19 +3392,19 @@
         <v>66</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>81</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>39</v>
@@ -3169,30 +3422,30 @@
         <v>39</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>141</v>
+        <v>435</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="D5" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -3210,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>158</v>
+        <v>436</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>261</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -3231,12 +3484,12 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3248,19 +3501,19 @@
         <v>84</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>85</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -3280,19 +3533,19 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>86</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -3303,39 +3556,39 @@
         <v>83</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>87</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>158</v>
+        <v>436</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>267</v>
+        <v>440</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>293</v>
+        <v>438</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>294</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -3363,10 +3616,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -3382,7 +3635,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -3393,12 +3646,12 @@
         <v>87</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="C5" s="1">
         <v>-2147483648</v>
@@ -3419,7 +3672,7 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
@@ -3434,25 +3687,25 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -3473,22 +3726,22 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -3496,13 +3749,13 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>43</v>
@@ -3511,21 +3764,21 @@
         <v>43</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>293</v>
+        <v>438</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="D5" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="E5" s="1">
         <v>1.2</v>
@@ -3534,10 +3787,10 @@
         <v>0.7</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -3555,7 +3808,7 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
@@ -3567,16 +3820,16 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -3594,13 +3847,13 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -3608,13 +3861,13 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>43</v>
@@ -3622,13 +3875,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>267</v>
+        <v>440</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="E5" s="1">
         <v>0.8</v>
@@ -3651,7 +3904,7 @@
     <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -3663,10 +3916,10 @@
         <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -3683,10 +3936,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -3697,101 +3950,101 @@
         <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>124</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>125</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>169</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>123</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>122</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>170</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>171</v>
+        <v>426</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>172</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>173</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>174</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>175</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -3809,9 +4062,9 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
@@ -3820,13 +4073,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -3843,10 +4096,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -3854,24 +4107,24 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>292</v>
+        <v>439</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>173</v>
+        <v>428</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>174</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -3945,7 +4198,7 @@
         <v>82</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>37</v>
@@ -3956,7 +4209,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>261</v>
+        <v>437</v>
       </c>
       <c r="C5" s="1">
         <v>32</v>
@@ -3965,7 +4218,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3996,13 +4249,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -4010,13 +4263,13 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -4025,10 +4278,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -4036,24 +4289,24 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="C5">
         <v>100000</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -4084,13 +4337,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -4098,13 +4351,13 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -4113,10 +4366,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -4124,24 +4377,24 @@
         <v>22</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="C5">
         <v>20</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -4172,13 +4425,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -4186,13 +4439,13 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -4201,10 +4454,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -4212,24 +4465,24 @@
         <v>22</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="C5">
         <v>3200</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -4260,13 +4513,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -4274,13 +4527,13 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -4289,10 +4542,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -4300,24 +4553,24 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="C5">
         <v>120</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -4349,13 +4602,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -4363,13 +4616,13 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -4378,10 +4631,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -4389,200 +4642,200 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="C5">
         <v>350</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="C6">
         <v>560</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="C7">
         <v>562</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="C8">
         <v>463</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="C9">
         <v>450</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="C10">
         <v>630</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="C11">
         <v>633</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
       <c r="C12">
         <v>535</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="C13">
         <v>10</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="C14">
         <v>25</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="C15">
         <v>11</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="C16">
         <v>21</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="C17">
         <v>20</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="C18">
         <v>30</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="C19">
         <v>23</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
       <c r="C20">
         <v>34</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
       <c r="C21">
         <v>510</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -4613,13 +4866,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -4628,10 +4881,10 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -4640,10 +4893,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -4651,35 +4904,35 @@
         <v>22</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C5">
         <v>200</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="C6">
         <v>300</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -4697,7 +4950,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
@@ -4713,16 +4966,16 @@
         <v>25</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -4741,16 +4994,16 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -4761,33 +5014,33 @@
         <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>133</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>124</v>
+        <v>419</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -4852,42 +5105,42 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -4905,7 +5158,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
@@ -4913,7 +5166,7 @@
     <col min="7" max="7" width="15.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4925,19 +5178,19 @@
         <v>29</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>31</v>
@@ -4946,7 +5199,7 @@
         <v>32</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -4969,19 +5222,19 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>34</v>
@@ -4990,7 +5243,7 @@
         <v>35</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
@@ -5001,19 +5254,19 @@
         <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>38</v>
@@ -5022,36 +5275,36 @@
         <v>40</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>125</v>
+        <v>420</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="H5" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="I5" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>195</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -5069,7 +5322,7 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.69921875" style="1"/>
   </cols>
@@ -5079,10 +5332,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -5098,7 +5351,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -5106,18 +5359,18 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>195</v>
+        <v>421</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -5135,7 +5388,7 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.3984375" style="1" bestFit="1" customWidth="1"/>
@@ -5150,25 +5403,25 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
@@ -5189,22 +5442,22 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
@@ -5212,48 +5465,48 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="G5" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -5271,7 +5524,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
@@ -5287,16 +5540,16 @@
         <v>41</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -5315,16 +5568,16 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -5335,33 +5588,33 @@
         <v>42</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>123</v>
+        <v>423</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -5379,7 +5632,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" style="1" bestFit="1" customWidth="1"/>
@@ -5400,13 +5653,13 @@
         <v>44</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>45</v>
@@ -5448,13 +5701,13 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>51</v>
@@ -5483,16 +5736,16 @@
         <v>57</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>43</v>
@@ -5512,31 +5765,31 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>122</v>
+        <v>424</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="F5" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="G5" s="1">
         <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="I5" s="1">
         <v>1.2</v>
       </c>
       <c r="J5" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="K5" s="1">
         <v>60.12</v>

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/instrument.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/instrument.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784C225D-CA4C-47E6-B7DC-963151A36CC2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D83B1DB-01B9-4F65-A726-BEEE2F94DFA8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18816" windowHeight="5028" tabRatio="865" xr2:uid="{F99566B2-EC23-42D5-8C4D-932A9FF4467A}"/>
   </bookViews>
@@ -53,9 +53,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="441">
   <si>
-    <t/>
-  </si>
-  <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/</t>
   </si>
   <si>
@@ -122,24 +119,15 @@
     <t>datatype</t>
   </si>
   <si>
-    <t>:Instrument</t>
-  </si>
-  <si>
     <t>rdf:langString</t>
   </si>
   <si>
     <t>Microscope</t>
   </si>
   <si>
-    <t>:Microscope</t>
-  </si>
-  <si>
     <t>Manufacturer</t>
   </si>
   <si>
-    <t>:Manufacturer</t>
-  </si>
-  <si>
     <t>Laser</t>
   </si>
   <si>
@@ -152,36 +140,15 @@
     <t>laser medium</t>
   </si>
   <si>
-    <t>:waveLength</t>
-  </si>
-  <si>
-    <t>:laserType</t>
-  </si>
-  <si>
-    <t>:laserMedium</t>
-  </si>
-  <si>
-    <t>:Laser</t>
-  </si>
-  <si>
     <t>xsd:boolean</t>
   </si>
   <si>
-    <t>:LaserType</t>
-  </si>
-  <si>
     <t>xsd:positiveInteger</t>
   </si>
   <si>
-    <t>:LaserMedium</t>
-  </si>
-  <si>
     <t>Detector</t>
   </si>
   <si>
-    <t>:Detector</t>
-  </si>
-  <si>
     <t>xsd:float</t>
   </si>
   <si>
@@ -206,33 +173,6 @@
     <t>calibrated maginification</t>
   </si>
   <si>
-    <t>:workingDistance</t>
-  </si>
-  <si>
-    <t>:nominalMagnification</t>
-  </si>
-  <si>
-    <t>:correction</t>
-  </si>
-  <si>
-    <t>:lensNA</t>
-  </si>
-  <si>
-    <t>:immersion</t>
-  </si>
-  <si>
-    <t>:calibratedMagnification</t>
-  </si>
-  <si>
-    <t>:Objective</t>
-  </si>
-  <si>
-    <t>:Correction</t>
-  </si>
-  <si>
-    <t>:Immersion</t>
-  </si>
-  <si>
     <t>Image</t>
   </si>
   <si>
@@ -242,18 +182,6 @@
     <t>acquisition date</t>
   </si>
   <si>
-    <t>:pixels</t>
-  </si>
-  <si>
-    <t>:acquisitionDate</t>
-  </si>
-  <si>
-    <t>:Image</t>
-  </si>
-  <si>
-    <t>:Pixels</t>
-  </si>
-  <si>
     <t>xsd:dateTime</t>
   </si>
   <si>
@@ -293,30 +221,12 @@
     <t>size y</t>
   </si>
   <si>
-    <t>:bigEndian</t>
-  </si>
-  <si>
-    <t>:PixelType</t>
-  </si>
-  <si>
-    <t>:BinData</t>
-  </si>
-  <si>
-    <t>:Channel</t>
-  </si>
-  <si>
     <t>Channel</t>
   </si>
   <si>
     <t>color</t>
   </si>
   <si>
-    <t>:color</t>
-  </si>
-  <si>
-    <t>:Color</t>
-  </si>
-  <si>
     <t>Binary Data</t>
   </si>
   <si>
@@ -326,12 +236,6 @@
     <t>data</t>
   </si>
   <si>
-    <t>:length</t>
-  </si>
-  <si>
-    <t>:data</t>
-  </si>
-  <si>
     <t>xsd:base64Binary</t>
   </si>
   <si>
@@ -418,18 +322,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:manufacturerSpec</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>xsd:string</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:ManufacturerSpec</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>instrument:instrument0</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -438,10 +334,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:model</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>xsd:string</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -450,46 +342,18 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:serialNumber</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>microscope type</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:microscopeType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:MicroscopeType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>manufacturer</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:manufacturer</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Manufacturer</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>detector type</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:detectorType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:DetectorType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>image:image0</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -498,66 +362,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:instrument</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Instrument</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>xsd:float</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>physicalSizeX</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>physicalSizeY</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>sizeC</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>sizeT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>sizeX</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>sizeY</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>sizeZ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>channel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>binData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>DimensionOrder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Channel</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>BinData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Color</t>
   </si>
   <si>
@@ -576,9 +384,6 @@
     <t>Pump</t>
   </si>
   <si>
-    <t>:Pump</t>
-  </si>
-  <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/instrument/image/</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -598,9 +403,6 @@
     <t>Dichroic</t>
   </si>
   <si>
-    <t>:Dichroic</t>
-  </si>
-  <si>
     <t>microscopeType:inverted</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -633,10 +435,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:power</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>laserType</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -661,34 +459,14 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:pump</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Pump</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Arc</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:Arc</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>arc type</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:arcType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:ArcType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>arcType:Xe</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -753,24 +531,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:ExcitationFilter</t>
-  </si>
-  <si>
-    <t>:EmissionFilter</t>
-  </si>
-  <si>
-    <t>:FilterSet</t>
-  </si>
-  <si>
-    <t>:dichroic</t>
-  </si>
-  <si>
-    <t>:excitationFilter</t>
-  </si>
-  <si>
-    <t>:emissionFilter</t>
-  </si>
-  <si>
     <t>dichroic</t>
   </si>
   <si>
@@ -795,10 +555,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:lotNumber</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Filter</t>
   </si>
   <si>
@@ -811,27 +567,9 @@
     <t>filer type</t>
   </si>
   <si>
-    <t>:filterWheel</t>
-  </si>
-  <si>
-    <t>:transmittanceRange</t>
-  </si>
-  <si>
-    <t>:filterType</t>
-  </si>
-  <si>
-    <t>:Filter</t>
-  </si>
-  <si>
     <t>xsd:string</t>
   </si>
   <si>
-    <t>:TransmittanceRange</t>
-  </si>
-  <si>
-    <t>:FilterType</t>
-  </si>
-  <si>
     <t>Transmittance Range</t>
   </si>
   <si>
@@ -850,21 +588,6 @@
     <t>cut in</t>
   </si>
   <si>
-    <t>:cutOutTolerance</t>
-  </si>
-  <si>
-    <t>:cutInTolerance</t>
-  </si>
-  <si>
-    <t>:transmittance</t>
-  </si>
-  <si>
-    <t>:cutOut</t>
-  </si>
-  <si>
-    <t>:cutIn</t>
-  </si>
-  <si>
     <t>filterType:bandPass</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -888,17 +611,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:lightSourceSettings</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:LightSourceSettings</t>
-  </si>
-  <si>
-    <t>:LightSourceSettings</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>detector settings</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -907,43 +619,15 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:detectorSettings</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:DetectorSettings</t>
-  </si>
-  <si>
-    <t>:DetectorSettings</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:lightPath</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:LightPath</t>
-  </si>
-  <si>
-    <t>:LightPath</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Light Source Settings</t>
   </si>
   <si>
     <t>attenuation</t>
   </si>
   <si>
-    <t>:attenuation</t>
-  </si>
-  <si>
     <t>Lignt Path</t>
   </si>
   <si>
-    <t>Detector Settings</t>
-  </si>
-  <si>
     <t>binning</t>
   </si>
   <si>
@@ -957,24 +641,6 @@
   </si>
   <si>
     <t>gain</t>
-  </si>
-  <si>
-    <t>:binning</t>
-  </si>
-  <si>
-    <t>:voltage</t>
-  </si>
-  <si>
-    <t>:offset</t>
-  </si>
-  <si>
-    <t>:readOutRate</t>
-  </si>
-  <si>
-    <t>:gain</t>
-  </si>
-  <si>
-    <t>:Binning</t>
   </si>
   <si>
     <t>binning</t>
@@ -1245,10 +911,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:pixelType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>LightSource:0</t>
   </si>
   <si>
@@ -1633,6 +1295,406 @@
   </si>
   <si>
     <t>lightSourceSettings:lightSourceSettings0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Instrument</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:manufacturerSpec</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:ManufacturerSpec</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Microscope</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:model</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:serialNumber</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:microscopeType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:MicroscopeType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:manufacturer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Manufacturer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Manufacturer</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Laser</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:power</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:laserType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:LaserType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:laserMedium</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:LaserMedium</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pump</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Pump</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Pump</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Arc</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:arcType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:ArcType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Detector</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:detectorType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:DetectorType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Objective</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:workingDistance</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:nominalMagnification</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:correction</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Correction</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:lensNA</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:immersion</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Immersion</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:calibratedMagnification</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:FilterSet</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:lotNumber</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:emissionFilter</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:excitationFilter</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:ExcitationFilter</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:EmissionFilter</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:dichroic</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Dichroic</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Filter</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:filterWheel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:transmittanceRange</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:TransmittanceRange</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:filterType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:FilterType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:cutIn</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:cutOut</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:cutInTolerance</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:cutOutTolerance</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:transmittance</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Image</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:acquisitionDate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:instrument</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Instrument</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:PixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:dimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:DimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:physicalSizeX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:physicalSizeY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeZ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:binData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:BinData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Channel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:color</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Color</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:lightSourceSettings</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:LightSourceSettings</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:detectorSettings</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:DetectorSettings</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:lightPath</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:LightPath</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:DetectorSettings</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:binning</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Binning</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:gain</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:offset</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:readOutRate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:voltage</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:LightSourceSettings</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:waveLength</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:attenuation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:LightPath</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:BinData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:length</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:bigEndian</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:data</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2058,442 +2120,442 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>319</v>
+        <v>220</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>320</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>321</v>
+        <v>222</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>322</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>323</v>
+        <v>224</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>324</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>325</v>
+        <v>226</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>326</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>327</v>
+        <v>228</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>328</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>368</v>
+        <v>268</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>331</v>
+        <v>232</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>332</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>166</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>174</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>189</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>192</v>
+        <v>128</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>193</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>198</v>
+        <v>134</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>199</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>201</v>
+        <v>137</v>
       </c>
       <c r="B28" t="s">
-        <v>200</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>271</v>
+        <v>172</v>
       </c>
       <c r="B29" t="s">
-        <v>272</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>376</v>
+        <v>276</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>377</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>379</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="6" t="s">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>381</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>382</v>
+        <v>282</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>383</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="6" t="s">
-        <v>384</v>
+        <v>284</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>385</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>159</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>161</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>329</v>
+        <v>230</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>330</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>386</v>
+        <v>286</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>387</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>388</v>
+        <v>288</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>402</v>
+        <v>302</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>389</v>
+        <v>289</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>403</v>
+        <v>303</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>404</v>
+        <v>304</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>406</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>405</v>
+        <v>305</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>407</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>390</v>
+        <v>290</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>408</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>391</v>
+        <v>291</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>409</v>
+        <v>309</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>392</v>
+        <v>292</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>410</v>
+        <v>310</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>393</v>
+        <v>293</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>411</v>
+        <v>311</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>394</v>
+        <v>294</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>412</v>
+        <v>312</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>395</v>
+        <v>295</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>396</v>
+        <v>296</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>397</v>
+        <v>297</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>414</v>
+        <v>314</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>398</v>
+        <v>298</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>399</v>
+        <v>299</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>416</v>
+        <v>316</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -2515,46 +2577,46 @@
     <col min="2" max="2" width="16.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>211</v>
+        <v>141</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>214</v>
+        <v>144</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>209</v>
+        <v>139</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>208</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2567,84 +2629,84 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>130</v>
+        <v>350</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>122</v>
+        <v>346</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>215</v>
+        <v>378</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>207</v>
+        <v>379</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>206</v>
+        <v>380</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>205</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>204</v>
+        <v>377</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>131</v>
+        <v>351</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>203</v>
+        <v>382</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>202</v>
+        <v>381</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>163</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>425</v>
+        <v>325</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>352</v>
+        <v>252</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>212</v>
+        <v>142</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>342</v>
+        <v>242</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>353</v>
+        <v>253</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>427</v>
+        <v>327</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>426</v>
+        <v>326</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>430</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -2665,8 +2727,8 @@
     <col min="2" max="2" width="10.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.69921875" style="1"/>
@@ -2674,33 +2736,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>216</v>
+        <v>145</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>217</v>
+        <v>146</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>218</v>
+        <v>147</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>219</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2712,132 +2774,132 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>130</v>
+        <v>350</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>122</v>
+        <v>346</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>220</v>
+        <v>386</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>221</v>
+        <v>387</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>222</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>223</v>
+        <v>385</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>131</v>
+        <v>351</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>224</v>
+        <v>149</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>225</v>
+        <v>388</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>226</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>426</v>
+        <v>326</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>343</v>
+        <v>243</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>212</v>
+        <v>142</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>344</v>
+        <v>244</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>345</v>
+        <v>245</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>431</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>427</v>
+        <v>327</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>346</v>
+        <v>246</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>212</v>
+        <v>142</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>347</v>
+        <v>247</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>432</v>
+        <v>332</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>238</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>428</v>
+        <v>328</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>348</v>
+        <v>248</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>212</v>
+        <v>142</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>349</v>
+        <v>249</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>433</v>
+        <v>333</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>238</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>429</v>
+        <v>329</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>212</v>
+        <v>142</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>434</v>
+        <v>334</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>238</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2857,37 +2919,38 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="19.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>232</v>
+        <v>155</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>231</v>
+        <v>154</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>229</v>
+        <v>152</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>228</v>
+        <v>151</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>230</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2898,63 +2961,63 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>237</v>
+        <v>391</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>236</v>
+        <v>392</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>234</v>
+        <v>393</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>233</v>
+        <v>394</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>235</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>225</v>
+        <v>388</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>277</v>
+        <v>178</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>277</v>
+        <v>178</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>277</v>
+        <v>178</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>277</v>
+        <v>178</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>431</v>
+        <v>331</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>278</v>
+        <v>179</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>279</v>
+        <v>180</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>280</v>
+        <v>181</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>281</v>
+        <v>182</v>
       </c>
       <c r="G5" s="1">
         <v>0.3</v>
@@ -2962,19 +3025,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>432</v>
+        <v>332</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>282</v>
+        <v>183</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>283</v>
+        <v>184</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>284</v>
+        <v>185</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>285</v>
+        <v>186</v>
       </c>
       <c r="G6" s="1">
         <v>0.8</v>
@@ -2982,19 +3045,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>433</v>
+        <v>333</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>286</v>
+        <v>187</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>287</v>
+        <v>188</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>288</v>
+        <v>189</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>289</v>
+        <v>190</v>
       </c>
       <c r="G7" s="1">
         <v>0.5</v>
@@ -3002,19 +3065,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>434</v>
+        <v>334</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>290</v>
+        <v>191</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>291</v>
+        <v>192</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>292</v>
+        <v>193</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>293</v>
+        <v>194</v>
       </c>
       <c r="G8" s="1">
         <v>0.7</v>
@@ -3038,30 +3101,30 @@
     <col min="2" max="2" width="16.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>162</v>
+        <v>105</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3070,48 +3133,48 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>130</v>
+        <v>350</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>122</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>163</v>
+        <v>384</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>131</v>
+        <v>351</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>430</v>
+        <v>330</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>341</v>
+        <v>241</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>342</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -3133,7 +3196,7 @@
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
@@ -3141,41 +3204,41 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -3183,75 +3246,75 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>63</v>
+        <v>397</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>64</v>
+        <v>399</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>137</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>66</v>
+        <v>398</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>138</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>239</v>
+        <v>157</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>241</v>
+        <v>159</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>435</v>
+        <v>335</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>240</v>
+        <v>158</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3273,7 +3336,7 @@
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.5" style="1" bestFit="1" customWidth="1"/>
@@ -3282,51 +3345,51 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>334</v>
+        <v>235</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3344,108 +3407,108 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>335</v>
+        <v>402</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>99</v>
+        <v>404</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>140</v>
+        <v>406</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>141</v>
+        <v>407</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>142</v>
+        <v>408</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>143</v>
+        <v>409</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>144</v>
+        <v>410</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>145</v>
+        <v>411</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>146</v>
+        <v>412</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>147</v>
+        <v>413</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>148</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>66</v>
+        <v>398</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>81</v>
+        <v>403</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>149</v>
+        <v>405</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>150</v>
+        <v>414</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>151</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>435</v>
+        <v>335</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>339</v>
+        <v>239</v>
       </c>
       <c r="D5" t="s">
-        <v>366</v>
+        <v>266</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>367</v>
+        <v>267</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -3463,10 +3526,10 @@
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>436</v>
+        <v>336</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>437</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -3485,7 +3548,7 @@
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.59765625" style="1" bestFit="1" customWidth="1"/>
@@ -3495,30 +3558,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>243</v>
+        <v>161</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>247</v>
+        <v>162</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>248</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3529,66 +3592,66 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>86</v>
+        <v>418</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>244</v>
+        <v>420</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>249</v>
+        <v>422</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>252</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>83</v>
+        <v>417</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>87</v>
+        <v>419</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>246</v>
+        <v>421</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>251</v>
+        <v>423</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>254</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>436</v>
+        <v>336</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>438</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>439</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -3613,45 +3676,45 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>87</v>
+        <v>419</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>242</v>
+        <v>160</v>
       </c>
       <c r="C5" s="1">
         <v>-2147483648</v>
@@ -3675,42 +3738,43 @@
     <col min="2" max="2" width="31.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>259</v>
+        <v>426</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>260</v>
+        <v>167</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>264</v>
+        <v>171</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>262</v>
+        <v>169</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>263</v>
+        <v>170</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>261</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3722,63 +3786,63 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>265</v>
+        <v>427</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>269</v>
+        <v>429</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>267</v>
+        <v>430</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>268</v>
+        <v>431</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>266</v>
+        <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>250</v>
+        <v>426</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>270</v>
+        <v>428</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>310</v>
+        <v>211</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>314</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>438</v>
+        <v>338</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>337</v>
+        <v>237</v>
       </c>
       <c r="D5" t="s">
-        <v>333</v>
+        <v>234</v>
       </c>
       <c r="E5" s="1">
         <v>1.2</v>
@@ -3787,10 +3851,10 @@
         <v>0.7</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>311</v>
+        <v>212</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>315</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -3811,30 +3875,30 @@
     <col min="2" max="2" width="37.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>255</v>
+        <v>164</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>256</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3843,45 +3907,45 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>33</v>
+        <v>434</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>257</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>245</v>
+        <v>433</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>277</v>
+        <v>178</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>440</v>
+        <v>340</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>336</v>
+        <v>236</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>294</v>
+        <v>195</v>
       </c>
       <c r="E5" s="1">
         <v>0.8</v>
@@ -3910,21 +3974,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="C1" s="3" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3932,119 +3996,119 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>117</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>342</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>119</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>364</v>
+        <v>264</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>422</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>423</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>424</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>425</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>426</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>427</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>428</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>429</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>430</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -4063,28 +4127,28 @@
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>258</v>
+        <v>166</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>209</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4092,39 +4156,39 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>207</v>
+        <v>379</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>206</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>253</v>
+        <v>436</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>203</v>
+        <v>382</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>202</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>439</v>
+        <v>339</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>428</v>
+        <v>328</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>429</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -4141,34 +4205,34 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4177,39 +4241,39 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>91</v>
+        <v>438</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>80</v>
+        <v>439</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>92</v>
+        <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>82</v>
+        <v>437</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>437</v>
+        <v>337</v>
       </c>
       <c r="C5" s="1">
         <v>32</v>
@@ -4218,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -4246,67 +4310,67 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>297</v>
+        <v>198</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>298</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>299</v>
+        <v>200</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>295</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>302</v>
+        <v>203</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>304</v>
+        <v>205</v>
       </c>
       <c r="C5">
         <v>100000</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -4334,67 +4398,67 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>305</v>
+        <v>206</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>298</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>306</v>
+        <v>207</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>295</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>307</v>
+        <v>208</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>276</v>
+        <v>177</v>
       </c>
       <c r="C5">
         <v>20</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -4422,67 +4486,67 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>308</v>
+        <v>209</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>298</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>309</v>
+        <v>210</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>295</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>310</v>
+        <v>211</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>311</v>
+        <v>212</v>
       </c>
       <c r="C5">
         <v>3200</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>372</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -4510,67 +4574,67 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>312</v>
+        <v>213</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>298</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>313</v>
+        <v>214</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>295</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>314</v>
+        <v>215</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>315</v>
+        <v>216</v>
       </c>
       <c r="C5">
         <v>120</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>373</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -4599,243 +4663,243 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>316</v>
+        <v>217</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>296</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>317</v>
+        <v>218</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>295</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>277</v>
+        <v>178</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>278</v>
+        <v>179</v>
       </c>
       <c r="C5">
         <v>350</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>374</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>282</v>
+        <v>183</v>
       </c>
       <c r="C6">
         <v>560</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>374</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>286</v>
+        <v>187</v>
       </c>
       <c r="C7">
         <v>562</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>374</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>290</v>
+        <v>191</v>
       </c>
       <c r="C8">
         <v>463</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>374</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>279</v>
+        <v>180</v>
       </c>
       <c r="C9">
         <v>450</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>374</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
-        <v>283</v>
+        <v>184</v>
       </c>
       <c r="C10">
         <v>630</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>374</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>287</v>
+        <v>188</v>
       </c>
       <c r="C11">
         <v>633</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>374</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>291</v>
+        <v>192</v>
       </c>
       <c r="C12">
         <v>535</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>374</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>280</v>
+        <v>181</v>
       </c>
       <c r="C13">
         <v>10</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>374</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>284</v>
+        <v>185</v>
       </c>
       <c r="C14">
         <v>25</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>374</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>288</v>
+        <v>189</v>
       </c>
       <c r="C15">
         <v>11</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>374</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>292</v>
+        <v>193</v>
       </c>
       <c r="C16">
         <v>21</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>374</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B17" s="1" t="s">
-        <v>281</v>
+        <v>182</v>
       </c>
       <c r="C17">
         <v>20</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>374</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
-        <v>285</v>
+        <v>186</v>
       </c>
       <c r="C18">
         <v>30</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>374</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
-        <v>289</v>
+        <v>190</v>
       </c>
       <c r="C19">
         <v>23</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>374</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
-        <v>293</v>
+        <v>194</v>
       </c>
       <c r="C20">
         <v>34</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>374</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
-        <v>294</v>
+        <v>195</v>
       </c>
       <c r="C21">
         <v>510</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>374</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -4863,76 +4927,76 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>195</v>
+        <v>131</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>296</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="4" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>295</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>154</v>
+        <v>98</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>301</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>273</v>
+        <v>174</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>303</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="C5">
         <v>200</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>375</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>318</v>
+        <v>219</v>
       </c>
       <c r="C6">
         <v>300</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>375</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -4960,27 +5024,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4990,57 +5054,57 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>122</v>
+        <v>346</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>125</v>
+        <v>347</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>127</v>
+        <v>348</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>130</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>26</v>
+        <v>345</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>128</v>
+        <v>349</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>131</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>362</v>
+        <v>262</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>363</v>
+        <v>263</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>167</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -5065,82 +5129,82 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>168</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
-        <v>169</v>
+        <v>111</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>170</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>191</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>197</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
-        <v>212</v>
+        <v>142</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>213</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -5160,51 +5224,51 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>171</v>
+        <v>113</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5218,93 +5282,93 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>130</v>
+        <v>350</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>122</v>
+        <v>346</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>125</v>
+        <v>347</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>172</v>
+        <v>354</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>34</v>
+        <v>355</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>35</v>
+        <v>357</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>179</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>36</v>
+        <v>353</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>131</v>
+        <v>351</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>273</v>
+        <v>174</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>38</v>
+        <v>356</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>40</v>
+        <v>358</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>336</v>
+        <v>236</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>169</v>
+        <v>111</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>361</v>
+        <v>261</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>194</v>
+        <v>130</v>
       </c>
       <c r="H5" t="s">
-        <v>187</v>
+        <v>123</v>
       </c>
       <c r="I5" t="s">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>421</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -5329,48 +5393,48 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>157</v>
+        <v>361</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>421</v>
+        <v>321</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>357</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -5388,45 +5452,45 @@
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>181</v>
+        <v>120</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>183</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>171</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5438,75 +5502,75 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>130</v>
+        <v>350</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>122</v>
+        <v>346</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>125</v>
+        <v>347</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>184</v>
+        <v>363</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>172</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>182</v>
+        <v>362</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>131</v>
+        <v>351</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>185</v>
+        <v>364</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>273</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>422</v>
+        <v>322</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>357</v>
+        <v>257</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>169</v>
+        <v>111</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>358</v>
+        <v>258</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>359</v>
+        <v>259</v>
       </c>
       <c r="G5" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>318</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -5526,35 +5590,35 @@
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5564,57 +5628,57 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>130</v>
+        <v>350</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>122</v>
+        <v>346</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>133</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>42</v>
+        <v>365</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>131</v>
+        <v>351</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>134</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>423</v>
+        <v>323</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>337</v>
+        <v>237</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>356</v>
+        <v>256</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>274</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -5635,54 +5699,54 @@
     <col min="2" max="2" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5697,99 +5761,99 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>130</v>
+        <v>350</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>122</v>
+        <v>346</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>51</v>
+        <v>369</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>52</v>
+        <v>370</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>53</v>
+        <v>371</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>54</v>
+        <v>373</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>55</v>
+        <v>374</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>56</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>57</v>
+        <v>368</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>131</v>
+        <v>351</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>275</v>
+        <v>176</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>58</v>
+        <v>372</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>59</v>
+        <v>375</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>424</v>
+        <v>324</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>354</v>
+        <v>254</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>355</v>
+        <v>255</v>
       </c>
       <c r="F5" t="s">
-        <v>276</v>
+        <v>177</v>
       </c>
       <c r="G5" s="1">
         <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="I5" s="1">
         <v>1.2</v>
       </c>
       <c r="J5" t="s">
-        <v>365</v>
+        <v>265</v>
       </c>
       <c r="K5" s="1">
         <v>60.12</v>
